--- a/insezacweb/assets/files/municipios.xlsx
+++ b/insezacweb/assets/files/municipios.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Apozol</t>
   </si>
@@ -51,6 +51,153 @@
   </si>
   <si>
     <t>Chalchihuites</t>
+  </si>
+  <si>
+    <t>Fresnillo</t>
+  </si>
+  <si>
+    <t>Trinidad García de la Cadena</t>
+  </si>
+  <si>
+    <t>Genaro Codina</t>
+  </si>
+  <si>
+    <t>General Enrique Estrada</t>
+  </si>
+  <si>
+    <t>General Francisco R. Murguía</t>
+  </si>
+  <si>
+    <t>El Plateado de Joaquín Amaro</t>
+  </si>
+  <si>
+    <t>General Pánfilo Natera</t>
+  </si>
+  <si>
+    <t>Guadalupe</t>
+  </si>
+  <si>
+    <t>Huanusco</t>
+  </si>
+  <si>
+    <t>Jalpa</t>
+  </si>
+  <si>
+    <t>Jerez</t>
+  </si>
+  <si>
+    <t>Jiménez del Teul</t>
+  </si>
+  <si>
+    <t>Juan Aldama</t>
+  </si>
+  <si>
+    <t>Juchipila</t>
+  </si>
+  <si>
+    <t>Loreto</t>
+  </si>
+  <si>
+    <t>Luis Moya</t>
+  </si>
+  <si>
+    <t>Mazapil</t>
+  </si>
+  <si>
+    <t>Melchor Ocampo</t>
+  </si>
+  <si>
+    <t>Mezquital del Oro</t>
+  </si>
+  <si>
+    <t>Miguel Auza</t>
+  </si>
+  <si>
+    <t>Momax</t>
+  </si>
+  <si>
+    <t>Monte Escobedo</t>
+  </si>
+  <si>
+    <t>Morelos</t>
+  </si>
+  <si>
+    <t>Moyahua de Estrada</t>
+  </si>
+  <si>
+    <t>Nochistlán de Mejía</t>
+  </si>
+  <si>
+    <t>Noria de Ángeles</t>
+  </si>
+  <si>
+    <t>Ojocaliente</t>
+  </si>
+  <si>
+    <t>Pánuco</t>
+  </si>
+  <si>
+    <t>Pinos</t>
+  </si>
+  <si>
+    <t>Río Grande</t>
+  </si>
+  <si>
+    <t>Saín Alto</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Sombrerete</t>
+  </si>
+  <si>
+    <t>Susticacán</t>
+  </si>
+  <si>
+    <t>Tabasco</t>
+  </si>
+  <si>
+    <t>Tepechitlán</t>
+  </si>
+  <si>
+    <t>Tepetongo</t>
+  </si>
+  <si>
+    <t>Teul de González Ortega</t>
+  </si>
+  <si>
+    <t>Tlaltenango de Sánchez Román</t>
+  </si>
+  <si>
+    <t>Valparaíso</t>
+  </si>
+  <si>
+    <t>Vetagrande</t>
+  </si>
+  <si>
+    <t>Villa de Cos</t>
+  </si>
+  <si>
+    <t>Villa García</t>
+  </si>
+  <si>
+    <t>Villa González Ortega</t>
+  </si>
+  <si>
+    <t>Villa Hidalgo</t>
+  </si>
+  <si>
+    <t>Villanueva</t>
+  </si>
+  <si>
+    <t>Zacatecas</t>
+  </si>
+  <si>
+    <t>Trancoso</t>
+  </si>
+  <si>
+    <t>Santa María de la Paz</t>
   </si>
   <si>
     <t>Municipio</t>
@@ -406,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,10 +567,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -496,6 +643,398 @@
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
